--- a/v0.7/ValueSet-claim-service-codes.xlsx
+++ b/v0.7/ValueSet-claim-service-codes.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hcx-project.github.io/hcx-specs/v0.7/ValueSet-claim-service-codes.html</t>
+    <t>https://ig.hcxprotocol.io/v0.7/ValueSet-claim-service-codes.html</t>
   </si>
   <si>
     <t>Version</t>

--- a/v0.7/ValueSet-claim-service-codes.xlsx
+++ b/v0.7/ValueSet-claim-service-codes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="68">
   <si>
     <t>Property</t>
   </si>
@@ -195,9 +195,6 @@
     <t>Intensivist charges</t>
   </si>
   <si>
-    <t>Procedure charges</t>
-  </si>
-  <si>
     <t>504001</t>
   </si>
   <si>
@@ -213,10 +210,10 @@
     <t>505000</t>
   </si>
   <si>
-    <t>Physiotherapy</t>
-  </si>
-  <si>
     <t>Technician charges</t>
+  </si>
+  <si>
+    <t>505001</t>
   </si>
   <si>
     <t>OT/Cath Lab Technician</t>
@@ -474,7 +471,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -526,17 +523,17 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s" s="2">
         <v>32</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>35</v>
@@ -547,17 +544,17 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s" s="2">
         <v>32</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>35</v>
@@ -568,17 +565,17 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>32</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>35</v>
@@ -589,17 +586,17 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s" s="2">
         <v>32</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>35</v>
@@ -610,17 +607,17 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s" s="2">
         <v>32</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>35</v>
@@ -631,17 +628,17 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
         <v>32</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>35</v>
@@ -652,17 +649,17 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s" s="2">
         <v>32</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>35</v>
@@ -673,17 +670,17 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>32</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>35</v>
@@ -694,17 +691,17 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>32</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>35</v>
@@ -715,17 +712,17 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>32</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>35</v>
@@ -736,17 +733,17 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>32</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>35</v>
@@ -757,17 +754,17 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>32</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>35</v>
@@ -778,17 +775,17 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>32</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>35</v>
@@ -799,17 +796,17 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>32</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>35</v>
@@ -820,547 +817,22 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>32</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="E18" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="F18" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="E19" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="F19" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="E20" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="F20" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="E21" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F21" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="E22" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="F22" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G22" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="E23" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="F23" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="F24" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="E25" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="F25" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="E26" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="F26" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="E27" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="F27" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="E28" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="F28" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="E29" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="F29" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="E30" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="F30" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G30" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="E31" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="F31" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="E32" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="F32" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="E33" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="F33" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="E34" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="F34" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="E35" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="F35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="E36" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="F36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E37" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="F37" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="E38" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="F38" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="E39" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="F39" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="E40" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="F40" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="E41" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="F41" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="E42" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="F42" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G42" t="s" s="2">
         <v>35</v>
       </c>
     </row>

--- a/v0.7/ValueSet-claim-service-codes.xlsx
+++ b/v0.7/ValueSet-claim-service-codes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="119">
   <si>
     <t>Property</t>
   </si>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This is the value set that includes the codes to identify the general type of benefits under which products and services are provided</t>
+    <t>This value set includes sample codes for products and services provided by PMJAY</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -111,13 +111,13 @@
     <t>1</t>
   </si>
   <si>
-    <t>http://hcxprotocol.io/codes/service-codes</t>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>Professional fees charges</t>
+    <t>https://pmjay.gov.in/hbp-package-code</t>
+  </si>
+  <si>
+    <t>BM001</t>
+  </si>
+  <si>
+    <t>Thermal burns</t>
   </si>
   <si>
     <t>false</t>
@@ -126,97 +126,250 @@
     <t>2</t>
   </si>
   <si>
-    <t>501000</t>
-  </si>
-  <si>
-    <t>Visit charges</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>501001</t>
-  </si>
-  <si>
-    <t>Consultation charges</t>
-  </si>
-  <si>
-    <t>501002</t>
-  </si>
-  <si>
-    <t>Medical Supervision Charges</t>
-  </si>
-  <si>
-    <t>501003</t>
-  </si>
-  <si>
-    <t>Professional fees</t>
-  </si>
-  <si>
-    <t>502000</t>
-  </si>
-  <si>
-    <t>Surgery charges</t>
-  </si>
-  <si>
-    <t>502001</t>
-  </si>
-  <si>
-    <t>Surgeons Charges</t>
-  </si>
-  <si>
-    <t>502002</t>
-  </si>
-  <si>
-    <t>Assistant Surgeons Fee</t>
-  </si>
-  <si>
-    <t>503000</t>
-  </si>
-  <si>
-    <t>Anaesthetists Fee</t>
-  </si>
-  <si>
-    <t>503001</t>
-  </si>
-  <si>
-    <t>Anaesthetists fee</t>
-  </si>
-  <si>
-    <t>503002</t>
-  </si>
-  <si>
-    <t>OT standby charges</t>
-  </si>
-  <si>
-    <t>504000</t>
-  </si>
-  <si>
-    <t>Intensivist charges</t>
-  </si>
-  <si>
-    <t>504001</t>
-  </si>
-  <si>
-    <t>Beside procedures</t>
-  </si>
-  <si>
-    <t>504002</t>
-  </si>
-  <si>
-    <t>Suture charges</t>
-  </si>
-  <si>
-    <t>505000</t>
-  </si>
-  <si>
-    <t>Technician charges</t>
-  </si>
-  <si>
-    <t>505001</t>
-  </si>
-  <si>
-    <t>OT/Cath Lab Technician</t>
+    <t>https://pmjay.gov.in/hbp-procedure-code</t>
+  </si>
+  <si>
+    <t>BM001A</t>
+  </si>
+  <si>
+    <t>% Total Body Surface Area Burns (TBSA) - any %(not requiring admission). Needs at least 5-6 dressing</t>
+  </si>
+  <si>
+    <t>BM001B</t>
+  </si>
+  <si>
+    <t>% Total Body Surface Area Burns (TBSA): Upto 40 %; Includes % TBSA skin grafted, flap cover, follow-up dressings etc. as deemed necessary; Surgical procedures are required for deep burns that are not amenable to heal with dressings alone.</t>
+  </si>
+  <si>
+    <t>BM001C</t>
+  </si>
+  <si>
+    <t>% Total Body Surface Area Burns (TBSA): 40% - 60 %; Includes % TBSA skin grafted, flap cover, follow-up dressings etc. as deemed necessary; Surgical procedures are required for deep burns that are not amenable to heal with dressings alone.</t>
+  </si>
+  <si>
+    <t>BM001D</t>
+  </si>
+  <si>
+    <t>% Total Body Surface Area Burns (TBSA): &gt; 60 %; Includes % TBSA skin grafted, flap cover, follow-up dressings etc. as deemed necessary; Surgical procedures are required for deep burns that are not amenable to heal with dressings alone.</t>
+  </si>
+  <si>
+    <t>BM002</t>
+  </si>
+  <si>
+    <t>Scald burns</t>
+  </si>
+  <si>
+    <t>BM002A</t>
+  </si>
+  <si>
+    <t>BM002B</t>
+  </si>
+  <si>
+    <t>BM002C</t>
+  </si>
+  <si>
+    <t>BM002D</t>
+  </si>
+  <si>
+    <t>BM003</t>
+  </si>
+  <si>
+    <t>Flame burns</t>
+  </si>
+  <si>
+    <t>BM003A</t>
+  </si>
+  <si>
+    <t>BM003B</t>
+  </si>
+  <si>
+    <t>BM003C</t>
+  </si>
+  <si>
+    <t>BM003D</t>
+  </si>
+  <si>
+    <t>ER001</t>
+  </si>
+  <si>
+    <t>Laceration - Suturing / Dressing</t>
+  </si>
+  <si>
+    <t>ER001A</t>
+  </si>
+  <si>
+    <t>ER002</t>
+  </si>
+  <si>
+    <t>Cardiopulmonary emergency</t>
+  </si>
+  <si>
+    <t>ER002A</t>
+  </si>
+  <si>
+    <t>Emergency with stable cardiopulmonary status</t>
+  </si>
+  <si>
+    <t>ER002B</t>
+  </si>
+  <si>
+    <t>Emergency with unstable cardiopulmonary status with resuccitation</t>
+  </si>
+  <si>
+    <t>ER003</t>
+  </si>
+  <si>
+    <t>Animal bites (Excluding Snake Bite)</t>
+  </si>
+  <si>
+    <t>ER003A</t>
+  </si>
+  <si>
+    <t>ID001</t>
+  </si>
+  <si>
+    <t>Laboratory Tests for COVID- 19 Infection (PCR) (Reimbursement level for this package will be as per the ICMR guidelines, issued from time to time)</t>
+  </si>
+  <si>
+    <t>ID001A</t>
+  </si>
+  <si>
+    <t>ID003</t>
+  </si>
+  <si>
+    <t>Treatment of COVID-19 Infection</t>
+  </si>
+  <si>
+    <t>ID003A</t>
+  </si>
+  <si>
+    <t>IN001</t>
+  </si>
+  <si>
+    <t>Dural AVMs / AVFs</t>
+  </si>
+  <si>
+    <t>IN001A</t>
+  </si>
+  <si>
+    <t>Dural AVMs (per sitting) with glue</t>
+  </si>
+  <si>
+    <t>IN001B</t>
+  </si>
+  <si>
+    <t>Dural AVFs (per sitting) with glue</t>
+  </si>
+  <si>
+    <t>IN001C</t>
+  </si>
+  <si>
+    <t>Dural AVMs (per sitting) with onyx</t>
+  </si>
+  <si>
+    <t>IN001D</t>
+  </si>
+  <si>
+    <t>Dural AVFs (per sitting) with onyx</t>
+  </si>
+  <si>
+    <t>IN002</t>
+  </si>
+  <si>
+    <t>Cerebral &amp; Spinal AVM embolization - Using Histoacryl (per sitting)</t>
+  </si>
+  <si>
+    <t>IN002A</t>
+  </si>
+  <si>
+    <t>Cerebral AVM embolization - Using Histoacryl (per sitting)</t>
+  </si>
+  <si>
+    <t>IN002B</t>
+  </si>
+  <si>
+    <t>Spinal AVM embolization - Using Histoacryl (per sitting)</t>
+  </si>
+  <si>
+    <t>IN003</t>
+  </si>
+  <si>
+    <t>Coil embolization for aneurysms (includes cost of first 3 coils + balloon and / or stent if used)</t>
+  </si>
+  <si>
+    <t>IN003A</t>
+  </si>
+  <si>
+    <t>IN004</t>
+  </si>
+  <si>
+    <t>Carotico-cavernous Fistula (CCF) embolization</t>
+  </si>
+  <si>
+    <t>IN004A</t>
+  </si>
+  <si>
+    <t>Carotico-cavernous Fistula (CCF) embolization with coils. [includes 5 coils, guide catheter, micro-catheter, micro- guidewire, general items]</t>
+  </si>
+  <si>
+    <t>IN004B</t>
+  </si>
+  <si>
+    <t>Carotid-cavernous Fistula (CCF) embolization with balloon (includes one balloon, guide catheter, micro-catheter, micro- guidewire, general items)</t>
+  </si>
+  <si>
+    <t>IN005</t>
+  </si>
+  <si>
+    <t>Pre-operative tumour embolization (per session)</t>
+  </si>
+  <si>
+    <t>IN005A</t>
+  </si>
+  <si>
+    <t>IN006</t>
+  </si>
+  <si>
+    <t>Intracranial balloon angioplasty with stenting</t>
+  </si>
+  <si>
+    <t>IN006A</t>
+  </si>
+  <si>
+    <t>IN007</t>
+  </si>
+  <si>
+    <t>Intracranial thrombolysis / clot retrieval</t>
+  </si>
+  <si>
+    <t>IN007A</t>
+  </si>
+  <si>
+    <t>IN008</t>
+  </si>
+  <si>
+    <t>Balloon test occlusion</t>
+  </si>
+  <si>
+    <t>IN008A</t>
+  </si>
+  <si>
+    <t>IN009</t>
+  </si>
+  <si>
+    <t>Parent vessel occlusion - Basic</t>
+  </si>
+  <si>
+    <t>IN009A</t>
+  </si>
+  <si>
+    <t>IN010</t>
+  </si>
+  <si>
+    <t>Vertebroplasty</t>
+  </si>
+  <si>
+    <t>IN010A</t>
   </si>
 </sst>
 </file>
@@ -471,7 +624,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -526,14 +679,14 @@
         <v>36</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>35</v>
@@ -544,10 +697,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -565,10 +718,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -586,10 +739,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -607,7 +760,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s" s="2">
         <v>32</v>
@@ -628,17 +781,17 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
         <v>48</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>35</v>
@@ -649,17 +802,17 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>35</v>
@@ -673,14 +826,14 @@
         <v>36</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>35</v>
@@ -691,17 +844,17 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>35</v>
@@ -712,17 +865,17 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>32</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>35</v>
@@ -736,14 +889,14 @@
         <v>36</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>35</v>
@@ -754,17 +907,17 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>35</v>
@@ -775,17 +928,17 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>35</v>
@@ -799,14 +952,14 @@
         <v>36</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>35</v>
@@ -817,22 +970,757 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>32</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="E18" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E19" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E20" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="E21" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="F21" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G17" t="s" s="2">
+      <c r="E22" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="E23" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="E32" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="E33" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="E34" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="E35" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="E36" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="E37" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="E38" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="E39" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="E40" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="E41" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="E42" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="E43" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="E44" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="E45" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="E46" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E47" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="E48" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="E49" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="E50" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="E51" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="E52" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G52" t="s" s="2">
         <v>35</v>
       </c>
     </row>
